--- a/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 14,47</t>
+          <t>0,47; 14,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,75</t>
+          <t>2,28; 15,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 22,72</t>
+          <t>7,96; 22,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,99</t>
+          <t>8,78; 21,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,44</t>
+          <t>6,27; 17,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 17,06</t>
+          <t>7,57; 17,19</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 108,87</t>
+          <t>1,73; 109,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 117,82</t>
+          <t>10,92; 116,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,07; 153,54</t>
+          <t>35,54; 146,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 148,01</t>
+          <t>39,66; 153,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 112,12</t>
+          <t>30,86; 116,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,41; 119,79</t>
+          <t>38,76; 122,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,92</t>
+          <t>-5,22; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,83</t>
+          <t>-7,69; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,1</t>
+          <t>-6,84; 3,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,56</t>
+          <t>-6,48; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -3,84</t>
+          <t>-15,67; -4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -8,53</t>
+          <t>-18,45; -8,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,46</t>
+          <t>-4,43; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -2,16</t>
+          <t>-10,15; -2,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; -4,59</t>
+          <t>-11,6; -4,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 32,28</t>
+          <t>-26,12; 30,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 12,46</t>
+          <t>-38,99; 13,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 20,68</t>
+          <t>-33,93; 24,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 16,34</t>
+          <t>-18,5; 16,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,96; -13,56</t>
+          <t>-44,87; -14,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,32; -29,17</t>
+          <t>-52,64; -29,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 15,56</t>
+          <t>-16,58; 16,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -9,41</t>
+          <t>-37,71; -12,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -18,68</t>
+          <t>-43,09; -18,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,97</t>
+          <t>-4,68; 7,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 3,62</t>
+          <t>-7,33; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 11,01</t>
+          <t>-0,84; 10,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -1,68</t>
+          <t>-15,7; -2,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -9,89</t>
+          <t>-21,95; -8,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; -4,17</t>
+          <t>-16,65; -4,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,35</t>
+          <t>-9,04; 0,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -4,47</t>
+          <t>-13,55; -4,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 1,62</t>
+          <t>-7,42; 1,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 57,29</t>
+          <t>-26,91; 64,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 31,16</t>
+          <t>-41,2; 30,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 98,14</t>
+          <t>-6,12; 90,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,36; -5,37</t>
+          <t>-43,45; -6,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,88; -33,12</t>
+          <t>-61,72; -29,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -14,28</t>
+          <t>-44,89; -14,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 2,07</t>
+          <t>-34,4; 2,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,13; -19,83</t>
+          <t>-50,2; -17,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 7,87</t>
+          <t>-27,72; 6,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 15,13</t>
+          <t>5,6; 15,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 12,63</t>
+          <t>2,2; 12,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 15,29</t>
+          <t>3,44; 15,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 15,33</t>
+          <t>3,35; 15,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 10,49</t>
+          <t>-3,64; 9,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,32</t>
+          <t>-8,7; 4,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,31</t>
+          <t>6,03; 13,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,67</t>
+          <t>1,32; 9,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,86</t>
+          <t>-0,61; 8,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,7; 176,41</t>
+          <t>39,3; 176,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 141,64</t>
+          <t>16,66; 139,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,27; 173,63</t>
+          <t>26,71; 162,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,58; 63,48</t>
+          <t>10,53; 64,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 45,66</t>
+          <t>-11,85; 40,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 17,62</t>
+          <t>-27,98; 17,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,22; 76,76</t>
+          <t>27,89; 82,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 54,75</t>
+          <t>5,44; 54,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 43,36</t>
+          <t>-2,75; 45,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 2,89</t>
+          <t>-11,89; 4,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 8,16</t>
+          <t>-7,55; 8,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -4,34</t>
+          <t>-17,93; -4,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 3,95</t>
+          <t>-14,2; 4,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 0,03</t>
+          <t>-17,83; -0,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,37; -10,66</t>
+          <t>-27,55; -11,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 1,41</t>
+          <t>-10,8; 1,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 1,48</t>
+          <t>-10,48; 1,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,05; -9,74</t>
+          <t>-19,76; -9,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,76; 15,3</t>
+          <t>-47,92; 26,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 48,97</t>
+          <t>-30,35; 48,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,93; -24,75</t>
+          <t>-69,29; -25,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 13,42</t>
+          <t>-35,44; 13,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 0,17</t>
+          <t>-44,65; -0,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -37,06</t>
+          <t>-67,25; -38,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 5,98</t>
+          <t>-33,34; 5,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 5,9</t>
+          <t>-33,07; 4,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-62,08; -37,62</t>
+          <t>-61,23; -37,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 12,87</t>
+          <t>-0,1; 12,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 10,77</t>
+          <t>-1,97; 10,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,26; 16,44</t>
+          <t>4,44; 16,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 1,69</t>
+          <t>-14,78; 0,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -0,9</t>
+          <t>-17,09; -1,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 1,2</t>
+          <t>-12,77; 0,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,91</t>
+          <t>-5,14; 5,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,59</t>
+          <t>-7,64; 1,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,67</t>
+          <t>-2,12; 6,34</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,34; 122,98</t>
+          <t>-1,71; 126,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 109,65</t>
+          <t>-12,67; 94,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,83; 162,61</t>
+          <t>26,72; 160,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 5,6</t>
+          <t>-39,73; 3,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,6; -1,85</t>
+          <t>-46,65; -3,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 4,55</t>
+          <t>-33,89; 2,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 23,53</t>
+          <t>-20,23; 25,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 12,17</t>
+          <t>-29,73; 8,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 31,81</t>
+          <t>-8,37; 31,36</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 4,62</t>
+          <t>-3,21; 4,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,11</t>
+          <t>-3,68; 4,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,17</t>
+          <t>-2,77; 5,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -0,52</t>
+          <t>-9,65; 0,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,5</t>
+          <t>-9,46; 0,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -2,16</t>
+          <t>-16,58; -2,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,08</t>
+          <t>-5,48; 1,25</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,89</t>
+          <t>-5,5; 1,07</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 0,28</t>
+          <t>-7,86; 0,35</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 37,51</t>
+          <t>-19,93; 41,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 34,15</t>
+          <t>-22,99; 36,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 42,03</t>
+          <t>-18,09; 43,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -2,16</t>
+          <t>-31,89; -0,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 2,03</t>
+          <t>-30,57; 1,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-54,95; -8,7</t>
+          <t>-54,17; -9,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 5,83</t>
+          <t>-23,75; 6,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 4,66</t>
+          <t>-24,14; 5,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 1,44</t>
+          <t>-33,86; 1,69</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -1,2</t>
+          <t>-8,3; -1,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -1,89</t>
+          <t>-9,22; -2,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,1</t>
+          <t>-4,94; 3,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -2,39</t>
+          <t>-10,58; -2,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,4</t>
+          <t>-9,73; -0,83</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,06</t>
+          <t>-4,14; 4,24</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -3,09</t>
+          <t>-9,02; -3,03</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -2,63</t>
+          <t>-8,43; -2,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,58</t>
+          <t>-3,61; 2,56</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -7,78</t>
+          <t>-43,69; -7,25</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-46,9; -11,98</t>
+          <t>-46,81; -12,65</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 19,34</t>
+          <t>-25,88; 19,41</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-39,83; -10,5</t>
+          <t>-38,22; -9,09</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -1,63</t>
+          <t>-34,8; -3,47</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 17,91</t>
+          <t>-14,69; 18,13</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-38,0; -15,44</t>
+          <t>-38,57; -15,07</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-35,11; -12,69</t>
+          <t>-36,13; -11,79</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 12,44</t>
+          <t>-15,32; 12,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-0,74; 2,91</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-1,6; 1,94</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,04</t>
+          <t>0,21; 3,94</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-4,14; 0,35</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-7,03; -2,67</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,2</t>
+          <t>-8,12; -3,18</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-1,86; 1,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-3,67; -0,88</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,09</t>
+          <t>-2,98; -0,04</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 19,26</t>
+          <t>-4,39; 19,6</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,33</t>
+          <t>-9,86; 12,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0,64; 27,29</t>
+          <t>1,23; 26,45</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,33</t>
+          <t>-13,77; 1,3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -9,4</t>
+          <t>-23,9; -9,71</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -11,8</t>
+          <t>-28,08; -11,71</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,0</t>
+          <t>-8,1; 5,21</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,48</t>
+          <t>-16,15; -4,06</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -0,48</t>
+          <t>-12,93; -0,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 14,87</t>
+          <t>1,71; 15,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 15,22</t>
+          <t>2,97; 15,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 22,27</t>
+          <t>7,83; 22,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 21,34</t>
+          <t>8,15; 21,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 17,06</t>
+          <t>6,84; 16,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,19</t>
+          <t>7,15; 16,63</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 109,99</t>
+          <t>7,91; 112,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 116,99</t>
+          <t>14,81; 119,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,54; 146,55</t>
+          <t>35,98; 151,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,66; 153,25</t>
+          <t>36,36; 154,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 116,15</t>
+          <t>34,76; 111,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,76; 122,51</t>
+          <t>34,86; 110,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 4,71</t>
+          <t>-4,87; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 2,05</t>
+          <t>-7,26; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 3,56</t>
+          <t>-7,08; 3,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 4,85</t>
+          <t>-7,09; 4,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -4,53</t>
+          <t>-15,36; -4,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -8,73</t>
+          <t>-18,62; -8,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,81</t>
+          <t>-4,12; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -2,88</t>
+          <t>-9,79; -2,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -4,33</t>
+          <t>-11,72; -4,21</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 30,99</t>
+          <t>-24,22; 32,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 13,62</t>
+          <t>-37,72; 13,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 24,37</t>
+          <t>-36,76; 20,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 16,97</t>
+          <t>-20,1; 16,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,87; -14,95</t>
+          <t>-44,35; -14,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,64; -29,35</t>
+          <t>-52,88; -29,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 16,33</t>
+          <t>-15,58; 15,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,71; -12,27</t>
+          <t>-36,68; -11,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -18,34</t>
+          <t>-43,02; -18,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 7,64</t>
+          <t>-4,46; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,41</t>
+          <t>-7,4; 3,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 10,95</t>
+          <t>-1,12; 10,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -2,03</t>
+          <t>-16,12; -2,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,95; -8,65</t>
+          <t>-22,79; -8,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -4,12</t>
+          <t>-16,29; -3,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 0,45</t>
+          <t>-8,67; 1,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,55; -4,19</t>
+          <t>-14,34; -4,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,44</t>
+          <t>-7,27; 1,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 64,31</t>
+          <t>-25,96; 62,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 30,62</t>
+          <t>-41,73; 33,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 90,98</t>
+          <t>-7,36; 92,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,45; -6,59</t>
+          <t>-44,07; -6,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,72; -29,99</t>
+          <t>-62,86; -30,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,89; -14,58</t>
+          <t>-44,2; -12,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 2,31</t>
+          <t>-32,76; 5,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,2; -17,4</t>
+          <t>-52,62; -22,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 6,91</t>
+          <t>-27,52; 6,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,6; 15,57</t>
+          <t>5,37; 15,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 12,44</t>
+          <t>2,22; 12,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 15,17</t>
+          <t>3,35; 15,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,25</t>
+          <t>3,03; 14,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 9,93</t>
+          <t>-3,78; 9,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 4,13</t>
+          <t>-8,36; 4,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,82</t>
+          <t>5,69; 13,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 9,85</t>
+          <t>0,64; 9,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 8,16</t>
+          <t>-0,41; 8,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,3; 176,12</t>
+          <t>39,92; 181,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 139,2</t>
+          <t>16,7; 149,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,71; 162,46</t>
+          <t>26,48; 180,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,53; 64,8</t>
+          <t>9,59; 62,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 40,81</t>
+          <t>-12,8; 40,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 17,17</t>
+          <t>-27,84; 17,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,89; 82,14</t>
+          <t>26,48; 77,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,44; 54,84</t>
+          <t>2,95; 57,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 45,82</t>
+          <t>-2,02; 46,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 4,0</t>
+          <t>-12,2; 3,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 8,12</t>
+          <t>-7,34; 8,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,93; -4,63</t>
+          <t>-17,25; -4,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 4,25</t>
+          <t>-13,82; 4,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -0,31</t>
+          <t>-18,63; 0,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,55; -11,47</t>
+          <t>-27,27; -11,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 1,09</t>
+          <t>-10,36; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 1,09</t>
+          <t>-9,84; 1,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -9,58</t>
+          <t>-19,4; -8,65</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 26,09</t>
+          <t>-49,4; 24,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 48,48</t>
+          <t>-30,66; 48,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -25,09</t>
+          <t>-68,93; -26,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 13,62</t>
+          <t>-34,65; 14,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,65; -0,94</t>
+          <t>-45,02; 4,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,25; -38,12</t>
+          <t>-67,94; -37,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 5,05</t>
+          <t>-33,13; 5,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 4,98</t>
+          <t>-31,59; 5,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-61,23; -37,65</t>
+          <t>-61,82; -35,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 12,48</t>
+          <t>0,22; 11,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 10,06</t>
+          <t>-1,55; 10,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 16,26</t>
+          <t>3,83; 15,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 0,95</t>
+          <t>-14,02; 1,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,09; -1,23</t>
+          <t>-17,45; -1,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,66</t>
+          <t>-12,57; 1,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,1</t>
+          <t>-5,18; 5,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,84</t>
+          <t>-7,67; 2,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,34</t>
+          <t>-2,9; 6,2</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 126,05</t>
+          <t>1,36; 118,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 94,54</t>
+          <t>-11,43; 96,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>26,72; 160,82</t>
+          <t>23,16; 155,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 3,07</t>
+          <t>-38,36; 5,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -3,68</t>
+          <t>-47,03; -4,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,89; 2,29</t>
+          <t>-33,31; 3,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 25,26</t>
+          <t>-20,46; 24,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 8,95</t>
+          <t>-29,69; 11,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 31,36</t>
+          <t>-11,21; 29,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,88</t>
+          <t>-3,31; 4,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,23</t>
+          <t>-3,88; 4,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,19</t>
+          <t>-3,2; 5,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,14</t>
+          <t>-9,74; -0,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 0,3</t>
+          <t>-9,47; 0,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -2,43</t>
+          <t>-16,38; -2,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,25</t>
+          <t>-5,36; 1,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 1,07</t>
+          <t>-5,26; 1,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,35</t>
+          <t>-7,95; 0,2</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 41,7</t>
+          <t>-20,96; 41,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 36,88</t>
+          <t>-24,36; 32,83</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 43,27</t>
+          <t>-19,05; 43,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -0,12</t>
+          <t>-31,44; -1,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 1,52</t>
+          <t>-30,3; 3,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-54,17; -9,08</t>
+          <t>-55,18; -9,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 6,41</t>
+          <t>-23,41; 6,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 5,2</t>
+          <t>-22,68; 6,49</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 1,69</t>
+          <t>-35,2; 0,83</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -1,1</t>
+          <t>-8,91; -1,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -2,09</t>
+          <t>-9,0; -1,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,06</t>
+          <t>-4,75; 3,32</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -2,08</t>
+          <t>-10,7; -2,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -0,83</t>
+          <t>-9,26; -0,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,24</t>
+          <t>-3,71; 4,64</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -3,03</t>
+          <t>-8,6; -3,04</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -2,4</t>
+          <t>-8,03; -2,59</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,56</t>
+          <t>-3,44; 2,6</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -7,25</t>
+          <t>-44,89; -6,52</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-46,81; -12,65</t>
+          <t>-46,02; -12,55</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 19,41</t>
+          <t>-24,62; 20,84</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-38,22; -9,09</t>
+          <t>-38,67; -10,95</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-34,8; -3,47</t>
+          <t>-33,07; -1,42</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 18,13</t>
+          <t>-13,53; 20,15</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -15,07</t>
+          <t>-37,51; -15,55</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-36,13; -11,79</t>
+          <t>-35,74; -13,26</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 12,95</t>
+          <t>-14,61; 12,82</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,91</t>
+          <t>-0,98; 2,72</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,94</t>
+          <t>-1,62; 1,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,94</t>
+          <t>0,11; 3,91</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,35</t>
+          <t>-4,03; 0,33</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -2,67</t>
+          <t>-6,97; -2,48</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -3,18</t>
+          <t>-8,15; -3,06</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,12</t>
+          <t>-1,97; 0,84</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -0,88</t>
+          <t>-3,75; -0,95</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,04</t>
+          <t>-3,18; -0,05</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 19,6</t>
+          <t>-5,96; 18,6</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 12,97</t>
+          <t>-9,89; 12,21</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>1,23; 26,45</t>
+          <t>0,64; 26,39</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 1,3</t>
+          <t>-13,45; 1,25</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -9,71</t>
+          <t>-23,37; -9,13</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-28,08; -11,71</t>
+          <t>-27,48; -11,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,21</t>
+          <t>-8,47; 3,96</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -4,06</t>
+          <t>-16,46; -4,56</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -0,21</t>
+          <t>-13,78; -0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 15,13</t>
+          <t>0,4; 14,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 15,75</t>
+          <t>2,34; 15,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 22,41</t>
+          <t>7,43; 22,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 21,3</t>
+          <t>7,87; 20,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 16,66</t>
+          <t>6,05; 16,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 16,63</t>
+          <t>7,45; 17,06</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 112,82</t>
+          <t>0,16; 108,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 119,04</t>
+          <t>12,04; 117,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,98; 151,44</t>
+          <t>34,07; 153,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,36; 154,01</t>
+          <t>33,93; 148,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,76; 111,36</t>
+          <t>28,97; 112,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,86; 110,31</t>
+          <t>37,41; 119,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,84</t>
+          <t>-5,39; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,97</t>
+          <t>-7,38; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,01</t>
+          <t>-7,03; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 4,96</t>
+          <t>-7,31; 4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -4,18</t>
+          <t>-15,38; -3,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -8,52</t>
+          <t>-18,25; -8,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,61</t>
+          <t>-4,4; 3,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -2,67</t>
+          <t>-9,89; -2,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -4,21</t>
+          <t>-11,4; -4,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 32,38</t>
+          <t>-26,42; 32,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 13,91</t>
+          <t>-37,61; 12,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 20,69</t>
+          <t>-35,56; 20,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 16,67</t>
+          <t>-20,51; 16,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -14,45</t>
+          <t>-43,96; -13,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,88; -29,76</t>
+          <t>-52,32; -29,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 15,61</t>
+          <t>-16,57; 15,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,68; -11,72</t>
+          <t>-37,11; -9,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -18,43</t>
+          <t>-41,95; -18,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,03</t>
+          <t>-4,93; 6,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 3,44</t>
+          <t>-7,14; 3,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,89</t>
+          <t>-0,21; 11,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -2,08</t>
+          <t>-15,85; -1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -8,91</t>
+          <t>-22,26; -9,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -3,97</t>
+          <t>-16,27; -4,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 1,03</t>
+          <t>-8,34; 0,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -4,91</t>
+          <t>-13,09; -4,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 1,28</t>
+          <t>-6,78; 1,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 62,39</t>
+          <t>-27,75; 57,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 33,56</t>
+          <t>-40,95; 31,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 92,68</t>
+          <t>-1,99; 98,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,07; -6,67</t>
+          <t>-43,36; -5,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,86; -30,41</t>
+          <t>-62,88; -33,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,2; -12,68</t>
+          <t>-44,52; -14,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 5,51</t>
+          <t>-32,15; 2,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,62; -22,25</t>
+          <t>-50,13; -19,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 6,25</t>
+          <t>-26,11; 7,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 15,34</t>
+          <t>5,57; 15,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 12,77</t>
+          <t>2,37; 12,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,73</t>
+          <t>3,13; 15,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 14,82</t>
+          <t>3,04; 15,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 9,8</t>
+          <t>-3,23; 10,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 4,17</t>
+          <t>-8,4; 4,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,28</t>
+          <t>5,86; 13,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 9,99</t>
+          <t>1,01; 9,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,01</t>
+          <t>-0,65; 7,86</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,92; 181,07</t>
+          <t>35,7; 176,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,7; 149,17</t>
+          <t>16,23; 141,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,48; 180,81</t>
+          <t>24,27; 173,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,59; 62,99</t>
+          <t>9,58; 63,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 40,17</t>
+          <t>-10,42; 45,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 17,24</t>
+          <t>-27,6; 17,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,48; 77,14</t>
+          <t>26,22; 76,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 57,84</t>
+          <t>4,33; 54,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 46,15</t>
+          <t>-2,66; 43,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,84</t>
+          <t>-11,69; 2,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 8,01</t>
+          <t>-7,89; 8,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -4,61</t>
+          <t>-17,27; -4,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 4,57</t>
+          <t>-14,66; 3,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 0,97</t>
+          <t>-17,52; 0,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,27; -11,33</t>
+          <t>-27,37; -10,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 1,42</t>
+          <t>-10,58; 1,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1,42</t>
+          <t>-10,85; 1,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -8,65</t>
+          <t>-20,05; -9,74</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 24,34</t>
+          <t>-48,76; 15,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 48,67</t>
+          <t>-31,62; 48,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,93; -26,49</t>
+          <t>-68,93; -24,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 14,72</t>
+          <t>-35,22; 13,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 4,13</t>
+          <t>-43,84; 0,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,94; -37,52</t>
+          <t>-67,84; -37,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 5,59</t>
+          <t>-33,86; 5,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 5,71</t>
+          <t>-33,2; 5,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-61,82; -35,9</t>
+          <t>-62,08; -37,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,22; 11,93</t>
+          <t>0,1; 12,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 10,12</t>
+          <t>-1,64; 10,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,83; 15,83</t>
+          <t>4,26; 16,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 1,68</t>
+          <t>-13,55; 1,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -1,73</t>
+          <t>-16,52; -0,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 1,02</t>
+          <t>-12,15; 1,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 5,05</t>
+          <t>-4,56; 4,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 2,62</t>
+          <t>-7,49; 2,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,2</t>
+          <t>-2,87; 6,67</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,36; 118,82</t>
+          <t>0,34; 122,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 96,59</t>
+          <t>-10,79; 109,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,16; 155,32</t>
+          <t>23,83; 162,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 5,54</t>
+          <t>-37,67; 5,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,03; -4,62</t>
+          <t>-45,6; -1,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 3,63</t>
+          <t>-32,83; 4,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 24,23</t>
+          <t>-18,12; 23,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 11,48</t>
+          <t>-29,59; 12,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 29,77</t>
+          <t>-11,01; 31,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,93</t>
+          <t>-3,51; 4,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,02</t>
+          <t>-4,22; 4,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,19</t>
+          <t>-2,86; 5,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,49</t>
+          <t>-10,01; -0,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,87</t>
+          <t>-9,23; 0,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -2,42</t>
+          <t>-16,02; -2,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,28</t>
+          <t>-5,18; 1,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,28</t>
+          <t>-5,55; 0,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,2</t>
+          <t>-7,97; 0,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 41,86</t>
+          <t>-21,82; 37,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 32,83</t>
+          <t>-26,31; 34,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 43,67</t>
+          <t>-18,48; 42,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -1,82</t>
+          <t>-32,59; -2,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 3,41</t>
+          <t>-30,7; 2,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,18; -9,6</t>
+          <t>-54,95; -8,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 6,41</t>
+          <t>-22,5; 5,83</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 6,49</t>
+          <t>-23,72; 4,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 0,83</t>
+          <t>-34,96; 1,44</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -1,12</t>
+          <t>-8,87; -1,2</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -1,94</t>
+          <t>-9,23; -1,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,32</t>
+          <t>-5,3; 3,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -2,47</t>
+          <t>-10,98; -2,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,39</t>
+          <t>-9,29; -0,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,64</t>
+          <t>-4,43; 4,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -3,04</t>
+          <t>-8,64; -3,09</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,03; -2,59</t>
+          <t>-8,09; -2,63</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,6</t>
+          <t>-3,38; 2,58</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-44,89; -6,52</t>
+          <t>-45,24; -7,78</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -12,55</t>
+          <t>-46,9; -11,98</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 20,84</t>
+          <t>-27,37; 19,34</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-38,67; -10,95</t>
+          <t>-39,83; -10,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-33,07; -1,42</t>
+          <t>-34,04; -1,63</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 20,15</t>
+          <t>-15,43; 17,91</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-37,51; -15,55</t>
+          <t>-38,0; -15,44</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-35,74; -13,26</t>
+          <t>-35,11; -12,69</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 12,82</t>
+          <t>-14,63; 12,44</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,72</t>
+          <t>-1,0; 2,87</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,79</t>
+          <t>-1,78; 1,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,91</t>
+          <t>0,11; 4,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,33</t>
+          <t>-4,16; 0,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -2,48</t>
+          <t>-7,0; -2,57</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -3,06</t>
+          <t>-8,05; -3,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,84</t>
+          <t>-1,94; 1,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,95</t>
+          <t>-3,82; -0,96</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,05</t>
+          <t>-3,11; -0,09</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 18,6</t>
+          <t>-6,15; 19,26</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 12,21</t>
+          <t>-10,95; 11,33</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0,64; 26,39</t>
+          <t>0,64; 27,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 1,25</t>
+          <t>-13,91; 0,33</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-23,37; -9,13</t>
+          <t>-23,54; -9,4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-27,48; -11,29</t>
+          <t>-27,56; -11,8</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,96</t>
+          <t>-8,47; 5,0</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -4,56</t>
+          <t>-16,56; -4,48</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -0,25</t>
+          <t>-13,59; -0,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>10,94</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 15,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,75</t>
+          <t>0,7; 14,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,31; 29,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,99</t>
+          <t>7,31; 20,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,51; 19,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 17,06</t>
+          <t>5,92; 15,99</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>63,43%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,67; 116,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 117,82</t>
+          <t>4,08; 105,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,55; 193,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 148,01</t>
+          <t>32,12; 148,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,38; 131,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,41; 119,79</t>
+          <t>29,91; 112,11</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,57</t>
+          <t>-13,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,85</t>
+          <t>-8,2</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,1</t>
+          <t>-7,48; 2,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -8,53</t>
+          <t>-18,46; -8,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; -4,59</t>
+          <t>-11,7; -4,9</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,82%</t>
+          <t>-14,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-42,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,55%</t>
+          <t>-32,95%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 20,68</t>
+          <t>-38,08; 17,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,32; -29,17</t>
+          <t>-52,72; -29,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -18,68</t>
+          <t>-43,34; -20,71</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,09</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-3,1</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 11,01</t>
+          <t>-0,66; 10,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; -4,17</t>
+          <t>-16,43; -4,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 1,62</t>
+          <t>-7,12; 1,26</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>-31,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>-13,03%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 98,14</t>
+          <t>-4,44; 93,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -14,28</t>
+          <t>-45,24; -15,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 7,87</t>
+          <t>-27,61; 5,91</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 15,13</t>
+          <t>3,49; 14,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 15,29</t>
+          <t>2,92; 15,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 15,33</t>
+          <t>-0,53; 12,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,32</t>
+          <t>-15,14; 1,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,31</t>
+          <t>3,19; 12,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,86</t>
+          <t>-5,14; 5,56</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-23,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,7; 176,41</t>
+          <t>25,0; 163,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,27; 173,63</t>
+          <t>22,56; 167,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,58; 63,48</t>
+          <t>-1,36; 52,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 17,62</t>
+          <t>-52,32; 2,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,22; 76,76</t>
+          <t>14,48; 66,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 43,36</t>
+          <t>-24,41; 31,31</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-10,66</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-18,74</t>
+          <t>-20,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-15,09</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -4,34</t>
+          <t>-17,3; -4,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,37; -10,66</t>
+          <t>-30,56; -12,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,05; -9,74</t>
+          <t>-21,67; -10,06</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-50,81%</t>
+          <t>-50,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-52,51%</t>
+          <t>-56,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-50,42%</t>
+          <t>-53,1%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,93; -24,75</t>
+          <t>-68,99; -24,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -37,06</t>
+          <t>-75,97; -40,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-62,08; -37,62</t>
+          <t>-69,1; -39,96</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,26; 16,44</t>
+          <t>3,89; 16,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 1,2</t>
+          <t>-12,14; 1,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,67</t>
+          <t>-3,12; 6,39</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>77,43%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-17,23%</t>
+          <t>-17,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,83; 162,61</t>
+          <t>22,21; 159,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 4,55</t>
+          <t>-33,0; 4,01</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 31,81</t>
+          <t>-11,89; 30,09</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-4,58</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,17</t>
+          <t>-3,29; 4,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -2,16</t>
+          <t>-20,82; -2,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 0,28</t>
+          <t>-11,64; -0,91</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>-35,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-21,49%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 42,03</t>
+          <t>-21,64; 39,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-54,95; -8,7</t>
+          <t>-70,26; -10,0</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 1,44</t>
+          <t>-51,78; -4,66</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,1</t>
+          <t>-13,81; 1,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,06</t>
+          <t>-4,03; 4,48</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,58</t>
+          <t>-10,49; 1,6</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-24,09%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-12,77%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 19,34</t>
+          <t>-68,5; 9,79</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 17,91</t>
+          <t>-14,1; 19,62</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 12,44</t>
+          <t>-45,93; 7,65</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,04</t>
+          <t>-2,7; 3,08</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,2</t>
+          <t>-10,95; -4,06</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,09</t>
+          <t>-5,54; -1,1</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-12,84%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0,64; 27,29</t>
+          <t>-17,04; 20,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -11,8</t>
+          <t>-37,43; -14,69</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -0,48</t>
+          <t>-24,56; -4,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 15,19</t>
+          <t>1,42; 15,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 14,47</t>
+          <t>0,7; 14,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 14,17</t>
+          <t>0,27; 14,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 29,57</t>
+          <t>13,8; 29,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 22,72</t>
+          <t>7,61; 23,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 20,87</t>
+          <t>8,12; 21,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 19,87</t>
+          <t>10,28; 20,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,44</t>
+          <t>6,42; 16,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,99</t>
+          <t>6,16; 15,48</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 116,6</t>
+          <t>6,49; 120,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 108,87</t>
+          <t>2,62; 115,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 105,32</t>
+          <t>-0,7; 109,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,55; 193,68</t>
+          <t>62,17; 199,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,07; 153,54</t>
+          <t>34,97; 152,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,12; 148,88</t>
+          <t>36,05; 149,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 131,41</t>
+          <t>51,69; 140,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 112,12</t>
+          <t>30,86; 109,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,91; 112,11</t>
+          <t>31,1; 104,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,92</t>
+          <t>-4,92; 4,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,83</t>
+          <t>-7,29; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,76</t>
+          <t>-7,34; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,56</t>
+          <t>-7,28; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -3,84</t>
+          <t>-15,4; -3,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -8,71</t>
+          <t>-18,63; -8,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,46</t>
+          <t>-4,65; 3,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -2,16</t>
+          <t>-10,0; -2,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -4,9</t>
+          <t>-12,06; -4,59</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 32,28</t>
+          <t>-24,56; 31,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 12,46</t>
+          <t>-37,99; 12,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 17,25</t>
+          <t>-37,87; 15,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 16,34</t>
+          <t>-20,61; 17,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,96; -13,56</t>
+          <t>-44,17; -12,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,72; -29,63</t>
+          <t>-53,17; -30,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 15,56</t>
+          <t>-17,52; 14,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -9,41</t>
+          <t>-37,25; -10,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,34; -20,71</t>
+          <t>-45,48; -19,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,97</t>
+          <t>-4,64; 7,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 3,62</t>
+          <t>-6,71; 3,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 10,43</t>
+          <t>-1,46; 10,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -1,68</t>
+          <t>-16,08; -1,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -9,89</t>
+          <t>-22,76; -9,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,43; -4,34</t>
+          <t>-16,53; -4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,35</t>
+          <t>-8,46; 0,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -4,47</t>
+          <t>-13,16; -4,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 1,26</t>
+          <t>-7,35; 1,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 57,29</t>
+          <t>-26,77; 60,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 31,16</t>
+          <t>-39,07; 33,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 93,84</t>
+          <t>-8,42; 87,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,36; -5,37</t>
+          <t>-43,36; -6,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,88; -33,12</t>
+          <t>-63,54; -32,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -15,14</t>
+          <t>-45,47; -14,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 2,07</t>
+          <t>-32,19; 4,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,13; -19,83</t>
+          <t>-50,43; -19,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 5,91</t>
+          <t>-27,67; 6,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 14,05</t>
+          <t>2,97; 13,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 12,63</t>
+          <t>2,46; 12,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 15,04</t>
+          <t>2,8; 15,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,59</t>
+          <t>-0,03; 13,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 10,49</t>
+          <t>-3,6; 9,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 1,01</t>
+          <t>-16,0; 1,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,02</t>
+          <t>3,18; 11,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,67</t>
+          <t>1,24; 9,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,56</t>
+          <t>-5,33; 5,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,0; 163,88</t>
+          <t>21,86; 151,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 141,64</t>
+          <t>19,78; 142,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,56; 167,17</t>
+          <t>18,71; 167,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 52,58</t>
+          <t>-0,05; 54,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 45,66</t>
+          <t>-12,97; 40,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,32; 2,63</t>
+          <t>-54,42; 5,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,48; 66,84</t>
+          <t>15,22; 66,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 54,75</t>
+          <t>5,5; 54,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 31,31</t>
+          <t>-23,18; 32,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 2,89</t>
+          <t>-12,19; 3,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 8,16</t>
+          <t>-8,45; 8,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -4,37</t>
+          <t>-17,02; -3,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 3,95</t>
+          <t>-13,84; 4,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 0,03</t>
+          <t>-18,17; 1,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,56; -12,35</t>
+          <t>-31,23; -12,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 1,41</t>
+          <t>-10,49; 1,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 1,48</t>
+          <t>-10,01; 2,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -10,06</t>
+          <t>-20,92; -10,0</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,76; 15,3</t>
+          <t>-48,48; 21,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 48,97</t>
+          <t>-33,89; 50,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,99; -24,82</t>
+          <t>-67,68; -24,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 13,42</t>
+          <t>-33,65; 14,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 0,17</t>
+          <t>-44,29; 6,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-75,97; -40,95</t>
+          <t>-76,82; -40,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 5,98</t>
+          <t>-33,34; 5,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 5,9</t>
+          <t>-32,33; 9,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,1; -39,96</t>
+          <t>-68,5; -39,67</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 12,87</t>
+          <t>0,15; 12,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 10,77</t>
+          <t>-2,31; 10,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,89; 16,02</t>
+          <t>4,08; 15,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 1,69</t>
+          <t>-14,05; 1,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -0,9</t>
+          <t>-16,84; -0,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 1,21</t>
+          <t>-12,13; 1,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,91</t>
+          <t>-5,5; 4,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,59</t>
+          <t>-7,31; 2,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,39</t>
+          <t>-3,36; 5,69</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,34; 122,98</t>
+          <t>0,55; 120,65</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 109,65</t>
+          <t>-13,67; 100,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,21; 159,27</t>
+          <t>22,23; 155,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 5,6</t>
+          <t>-38,5; 4,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,6; -1,85</t>
+          <t>-45,79; -0,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 4,01</t>
+          <t>-32,97; 4,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 23,53</t>
+          <t>-21,01; 22,77</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 12,17</t>
+          <t>-28,57; 11,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 30,09</t>
+          <t>-12,59; 27,57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 4,62</t>
+          <t>-3,2; 4,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,11</t>
+          <t>-3,92; 4,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,64</t>
+          <t>-2,87; 4,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -0,52</t>
+          <t>-10,14; -0,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,5</t>
+          <t>-9,67; 0,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-20,82; -2,67</t>
+          <t>-20,51; -2,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,08</t>
+          <t>-5,17; 0,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,89</t>
+          <t>-5,31; 1,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -0,91</t>
+          <t>-11,5; -0,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 37,51</t>
+          <t>-20,82; 39,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 34,15</t>
+          <t>-24,68; 39,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 39,58</t>
+          <t>-18,7; 43,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -2,16</t>
+          <t>-32,77; -0,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 2,03</t>
+          <t>-31,05; 1,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-70,26; -10,0</t>
+          <t>-67,57; -10,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 5,83</t>
+          <t>-22,53; 4,31</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 4,66</t>
+          <t>-23,24; 6,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-51,78; -4,66</t>
+          <t>-51,05; -3,5</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -1,2</t>
+          <t>-8,72; -1,24</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -1,89</t>
+          <t>-8,91; -1,81</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 1,7</t>
+          <t>-13,54; 1,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -2,39</t>
+          <t>-10,98; -2,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,4</t>
+          <t>-9,66; -0,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,48</t>
+          <t>-3,61; 4,61</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -3,09</t>
+          <t>-8,64; -2,83</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -2,63</t>
+          <t>-7,89; -2,1</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 1,6</t>
+          <t>-9,78; 1,62</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -7,78</t>
+          <t>-44,22; -8,01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-46,9; -11,98</t>
+          <t>-45,27; -11,18</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 9,79</t>
+          <t>-69,35; 9,61</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-39,83; -10,5</t>
+          <t>-39,66; -11,52</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -1,63</t>
+          <t>-34,53; -1,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 19,62</t>
+          <t>-12,96; 20,06</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-38,0; -15,44</t>
+          <t>-37,13; -13,93</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-35,11; -12,69</t>
+          <t>-33,8; -10,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 7,65</t>
+          <t>-45,23; 7,57</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-0,77; 2,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-1,77; 1,82</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,08</t>
+          <t>-2,55; 2,91</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-4,03; 0,26</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-6,81; -2,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -4,06</t>
+          <t>-10,94; -4,09</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-1,92; 0,84</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-3,87; -1,03</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,1</t>
+          <t>-5,39; -1,11</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 19,26</t>
+          <t>-4,86; 19,81</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,33</t>
+          <t>-10,43; 12,22</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 20,43</t>
+          <t>-16,45; 19,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,33</t>
+          <t>-13,6; 1,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -9,4</t>
+          <t>-23,1; -9,44</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -14,69</t>
+          <t>-37,41; -14,8</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,0</t>
+          <t>-8,28; 3,91</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,48</t>
+          <t>-16,73; -4,85</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -4,99</t>
+          <t>-23,76; -4,93</t>
         </is>
       </c>
     </row>
